--- a/models/calculation engines/cbix2/outputs/default/common_data_inputs/actual_price_determination_from_CBIX_price/common_data_inputs_china_input_prices.xlsx
+++ b/models/calculation engines/cbix2/outputs/default/common_data_inputs/actual_price_determination_from_CBIX_price/common_data_inputs_china_input_prices.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1086,6 +1086,48 @@
         <v>4.285714285714286</v>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>4.191035714285714</v>
+      </c>
+      <c r="B47" t="n">
+        <v>242.8571428571429</v>
+      </c>
+      <c r="C47" t="n">
+        <v>34.28571428571428</v>
+      </c>
+      <c r="D47" t="n">
+        <v>4.285714285714286</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>4.191035714285714</v>
+      </c>
+      <c r="B48" t="n">
+        <v>242.8571428571429</v>
+      </c>
+      <c r="C48" t="n">
+        <v>34.28571428571428</v>
+      </c>
+      <c r="D48" t="n">
+        <v>4.285714285714286</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>4.191035714285714</v>
+      </c>
+      <c r="B49" t="n">
+        <v>242.8571428571429</v>
+      </c>
+      <c r="C49" t="n">
+        <v>34.28571428571428</v>
+      </c>
+      <c r="D49" t="n">
+        <v>4.285714285714286</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
